--- a/exps.xlsx
+++ b/exps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11475" windowHeight="7740" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11475" windowHeight="7740" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6789" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6799" uniqueCount="164">
   <si>
     <t>cache =2</t>
   </si>
@@ -516,6 +516,12 @@
   <si>
     <t>interval 100</t>
   </si>
+  <si>
+    <t>interval 10</t>
+  </si>
+  <si>
+    <t>interval 2</t>
+  </si>
 </sst>
 </file>
 
@@ -576,11 +582,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -24614,10 +24622,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P224"/>
+  <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
+      <selection activeCell="R203" sqref="R203:T212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25141,7 +25149,7 @@
         <v>78.965000000000003</v>
       </c>
       <c r="J22" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -25161,7 +25169,7 @@
         <v>90.813000000000002</v>
       </c>
       <c r="J23" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -25181,7 +25189,7 @@
         <v>92.962999999999994</v>
       </c>
       <c r="J24" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -25201,7 +25209,7 @@
         <v>98.480999999999995</v>
       </c>
       <c r="J25" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -25221,7 +25229,7 @@
         <v>104.435</v>
       </c>
       <c r="J26" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -25241,7 +25249,7 @@
         <v>112.459</v>
       </c>
       <c r="J27" s="4">
-        <v>2312.5239999999999</v>
+        <v>2491.8339999999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -25839,469 +25847,631 @@
         <v>1599.5989999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>2841.04</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="6">
         <v>2841.04</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="J50" s="6">
+        <f>I50</f>
+        <v>2841.04</v>
+      </c>
+      <c r="K50" s="6">
+        <f>I51</f>
         <v>6693.3919999999998</v>
       </c>
-      <c r="B50" t="s">
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6693.3919999999998</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>35</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>71</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>72</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>73</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I51" s="6">
+        <v>6693.3919999999998</v>
+      </c>
+      <c r="J51" s="6">
+        <f>I52</f>
         <v>1643.17</v>
       </c>
-      <c r="B51" t="s">
+      <c r="K51" s="6">
+        <f>I53</f>
+        <v>4811.8990000000003</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1643.17</v>
+      </c>
+      <c r="B52" t="s">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>75</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="I52" s="6">
+        <v>1643.17</v>
+      </c>
+      <c r="J52" s="6">
+        <f>I54</f>
+        <v>370.44600000000003</v>
+      </c>
+      <c r="K52" s="6">
+        <f>I55</f>
+        <v>3463.67</v>
+      </c>
+      <c r="L52" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>4811.8990000000003</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>35</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>71</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>72</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>73</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="I53" s="6">
+        <v>4811.8990000000003</v>
+      </c>
+      <c r="J53" s="6">
+        <f>I56</f>
+        <v>252.977</v>
+      </c>
+      <c r="K53" s="6">
+        <f>I57</f>
+        <v>3040.9870000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>370.44600000000003</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>42</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>78</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="I54" s="6">
+        <v>370.44600000000003</v>
+      </c>
+      <c r="J54" s="6">
+        <f>I58</f>
+        <v>139.83699999999999</v>
+      </c>
+      <c r="K54" s="6">
+        <f>I59</f>
+        <v>3040.6239999999998</v>
+      </c>
+      <c r="L54" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>3463.67</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>35</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>71</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>72</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>73</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="I55" s="6">
+        <v>3463.67</v>
+      </c>
+      <c r="J55" s="6">
+        <f>I60</f>
+        <v>112.907</v>
+      </c>
+      <c r="K55" s="6">
+        <f>I61</f>
+        <v>2881.306</v>
+      </c>
+      <c r="L55" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>252.977</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="I56" s="6">
+        <v>252.977</v>
+      </c>
+      <c r="J56" s="6">
+        <f>I62</f>
+        <v>80.534000000000006</v>
+      </c>
+      <c r="K56" s="6">
+        <f>I63</f>
+        <v>2803.7460000000001</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>3040.9870000000001</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>44</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>35</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>71</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>72</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>73</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="I57" s="6">
+        <v>3040.9870000000001</v>
+      </c>
+      <c r="J57" s="6">
+        <f>I64</f>
+        <v>79.525999999999996</v>
+      </c>
+      <c r="K57" s="6">
+        <f>I65</f>
+        <v>2804.9650000000001</v>
+      </c>
+      <c r="L57" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>139.83699999999999</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>85</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>86</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="I58" s="6">
+        <v>139.83699999999999</v>
+      </c>
+      <c r="J58" s="6">
+        <f>I66</f>
+        <v>96.775000000000006</v>
+      </c>
+      <c r="K58" s="6">
+        <f>I67</f>
+        <v>1987.7919999999999</v>
+      </c>
+      <c r="L58" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>3040.6239999999998</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>44</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>72</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>73</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="I59" s="6">
+        <v>3040.6239999999998</v>
+      </c>
+      <c r="J59" s="6">
+        <v>40</v>
+      </c>
+      <c r="K59" s="6">
+        <f>I69</f>
+        <v>1733.413</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>112.907</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>89</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>90</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I60" s="6">
+        <v>112.907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>2881.306</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>44</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>35</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>72</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>73</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="I61" s="6">
+        <v>2881.306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>80.534000000000006</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>93</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>61</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>94</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="I62" s="6">
+        <v>80.534000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>2803.7460000000001</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>44</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>35</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>71</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>72</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>73</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="I63" s="6">
+        <v>2803.7460000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>79.525999999999996</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>97</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>98</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="I64" s="6">
+        <v>79.525999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>2804.9650000000001</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>35</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>71</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>72</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>73</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="I65" s="6">
+        <v>2804.9650000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>96.775000000000006</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>102</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="I66" s="6">
+        <v>96.775000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>1987.7919999999999</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>44</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>35</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>71</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>72</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>73</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="I67" s="6">
+        <v>1987.7919999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>105</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>61</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>106</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="I68" s="6">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>1733.413</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>44</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>35</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>71</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>72</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>73</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="I69" s="6">
+        <v>1733.413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>3208.7849999999999</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>17</v>
-      </c>
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>7350.21</v>
-      </c>
-      <c r="B70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1628.059</v>
-      </c>
-      <c r="B71" t="s">
-        <v>38</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="6">
+        <v>3208.7849999999999</v>
+      </c>
+      <c r="J71" s="6">
+        <f>I71</f>
+        <v>3208.7849999999999</v>
+      </c>
+      <c r="K71" s="6">
+        <f>I72</f>
+        <v>7350.21</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5395.3909999999996</v>
+        <v>7350.21</v>
       </c>
       <c r="B72" t="s">
         <v>44</v>
@@ -26319,29 +26489,57 @@
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="I72" s="6">
+        <v>7350.21</v>
+      </c>
+      <c r="J72" s="6">
+        <f>I73</f>
+        <v>1628.059</v>
+      </c>
+      <c r="K72" s="6">
+        <f>I74</f>
+        <v>5395.3909999999996</v>
+      </c>
+      <c r="L72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>408.75099999999998</v>
+        <v>1628.059</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="6">
+        <v>1628.059</v>
+      </c>
+      <c r="J73" s="6">
+        <f>I75</f>
+        <v>408.75099999999998</v>
+      </c>
+      <c r="K73" s="6">
+        <f>I76</f>
+        <v>3266.9830000000002</v>
+      </c>
+      <c r="L73" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3266.9830000000002</v>
+        <v>5395.3909999999996</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -26359,29 +26557,57 @@
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I74" s="6">
+        <v>5395.3909999999996</v>
+      </c>
+      <c r="J74" s="6">
+        <f>I77</f>
+        <v>232.727</v>
+      </c>
+      <c r="K74" s="6">
+        <f>I78</f>
+        <v>3471.0909999999999</v>
+      </c>
+      <c r="L74" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>232.727</v>
+        <v>408.75099999999998</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
         <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="6">
+        <v>408.75099999999998</v>
+      </c>
+      <c r="J75" s="6">
+        <f>I79</f>
+        <v>134.25800000000001</v>
+      </c>
+      <c r="K75" s="6">
+        <f>I80</f>
+        <v>2905.51</v>
+      </c>
+      <c r="L75" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3471.0909999999999</v>
+        <v>3266.9830000000002</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
@@ -26399,29 +26625,57 @@
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I76" s="6">
+        <v>3266.9830000000002</v>
+      </c>
+      <c r="J76" s="6">
+        <f>I81</f>
+        <v>99.432000000000002</v>
+      </c>
+      <c r="K76" s="6">
+        <f>I82</f>
+        <v>2920.2829999999999</v>
+      </c>
+      <c r="L76" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>134.25800000000001</v>
+        <v>232.727</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="6">
+        <v>232.727</v>
+      </c>
+      <c r="J77" s="6">
+        <f>I83</f>
+        <v>85.16</v>
+      </c>
+      <c r="K77" s="6">
+        <f>I84</f>
+        <v>2896.3180000000002</v>
+      </c>
+      <c r="L77" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2905.51</v>
+        <v>3471.0909999999999</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -26439,29 +26693,57 @@
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="I78" s="6">
+        <v>3471.0909999999999</v>
+      </c>
+      <c r="J78" s="6">
+        <f>I85</f>
+        <v>69.441000000000003</v>
+      </c>
+      <c r="K78" s="6">
+        <f>I86</f>
+        <v>2788.2629999999999</v>
+      </c>
+      <c r="L78" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>99.432000000000002</v>
+        <v>134.25800000000001</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="6">
+        <v>134.25800000000001</v>
+      </c>
+      <c r="J79" s="6">
+        <f>I87</f>
+        <v>61.582999999999998</v>
+      </c>
+      <c r="K79" s="6">
+        <f>I88</f>
+        <v>1913.145</v>
+      </c>
+      <c r="L79" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2920.2829999999999</v>
+        <v>2905.51</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -26479,29 +26761,45 @@
         <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I80" s="6">
+        <v>2905.51</v>
+      </c>
+      <c r="J80" s="6">
+        <v>40</v>
+      </c>
+      <c r="K80" s="6">
+        <f>I90</f>
+        <v>1776.981</v>
+      </c>
+      <c r="L80" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>85.16</v>
+        <v>99.432000000000002</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
         <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I81" s="6">
+        <v>99.432000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2896.3180000000002</v>
+        <v>2920.2829999999999</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -26519,29 +26817,35 @@
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2920.2829999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>69.441000000000003</v>
+        <v>85.16</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
         <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I83" s="6">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2788.2629999999999</v>
+        <v>2896.3180000000002</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -26559,29 +26863,35 @@
         <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I84" s="6">
+        <v>2896.3180000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>61.582999999999998</v>
+        <v>69.441000000000003</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
         <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I85" s="6">
+        <v>69.441000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1913.145</v>
+        <v>2788.2629999999999</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -26599,29 +26909,35 @@
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2788.2629999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.47899999999999998</v>
+        <v>61.582999999999998</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
         <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F87" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I87" s="6">
+        <v>61.582999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1776.981</v>
+        <v>1913.145</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -26639,113 +26955,133 @@
         <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1913.145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3083.4949999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="I89" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1776.981</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G90" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1776.981</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3083.4949999999999</v>
+      </c>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="R91" s="6">
+        <v>3083.4949999999999</v>
+      </c>
+      <c r="S91" s="6">
+        <f>R91</f>
+        <v>3083.4949999999999</v>
+      </c>
+      <c r="T91" s="6">
+        <f>R92</f>
+        <v>7056.9480000000003</v>
+      </c>
+      <c r="U91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>132</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>133</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>134</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>135</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="R92" s="6">
         <v>7056.9480000000003</v>
       </c>
-      <c r="B91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>71</v>
-      </c>
-      <c r="G91" t="s">
-        <v>72</v>
-      </c>
-      <c r="H91" t="s">
-        <v>73</v>
-      </c>
-      <c r="I91" t="s">
-        <v>137</v>
-      </c>
-      <c r="J91" t="s">
-        <v>139</v>
-      </c>
-      <c r="K91" t="s">
-        <v>138</v>
-      </c>
-      <c r="L91" t="s">
-        <v>140</v>
-      </c>
-      <c r="M91" t="s">
-        <v>141</v>
-      </c>
-      <c r="N91" t="s">
-        <v>142</v>
-      </c>
-      <c r="O91">
-        <v>10</v>
-      </c>
-      <c r="P91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="S92" s="6">
+        <f>R93</f>
         <v>1598.6890000000001</v>
       </c>
-      <c r="B92" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T92" s="6">
+        <f>R94</f>
+        <v>5071.5990000000002</v>
+      </c>
+      <c r="U92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5071.5990000000002</v>
+        <v>7056.9480000000003</v>
       </c>
       <c r="B93" t="s">
         <v>138</v>
@@ -26769,7 +27105,7 @@
         <v>73</v>
       </c>
       <c r="I93" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J93" t="s">
         <v>139</v>
@@ -26792,27 +27128,55 @@
       <c r="P93" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R93" s="6">
+        <v>1598.6890000000001</v>
+      </c>
+      <c r="S93" s="6">
+        <f>R95</f>
+        <v>364.26600000000002</v>
+      </c>
+      <c r="T93" s="6">
+        <f>R96</f>
+        <v>4141.3760000000002</v>
+      </c>
+      <c r="U93" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>364.26600000000002</v>
+        <v>1598.6890000000001</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R94" s="6">
+        <v>5071.5990000000002</v>
+      </c>
+      <c r="S94" s="6">
+        <f>R97</f>
+        <v>217.09800000000001</v>
+      </c>
+      <c r="T94" s="6">
+        <f>R98</f>
+        <v>3463.4059999999999</v>
+      </c>
+      <c r="U94" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4141.3760000000002</v>
+        <v>5071.5990000000002</v>
       </c>
       <c r="B95" t="s">
         <v>138</v>
@@ -26836,7 +27200,7 @@
         <v>73</v>
       </c>
       <c r="I95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J95" t="s">
         <v>139</v>
@@ -26859,27 +27223,55 @@
       <c r="P95" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R95" s="6">
+        <v>364.26600000000002</v>
+      </c>
+      <c r="S95" s="6">
+        <f>R99</f>
+        <v>137.19900000000001</v>
+      </c>
+      <c r="T95" s="6">
+        <f>R100</f>
+        <v>3089.3789999999999</v>
+      </c>
+      <c r="U95" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>217.09800000000001</v>
+        <v>364.26600000000002</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
         <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R96" s="6">
+        <v>4141.3760000000002</v>
+      </c>
+      <c r="S96" s="6">
+        <f>R101</f>
+        <v>83.022000000000006</v>
+      </c>
+      <c r="T96" s="6">
+        <f>R102</f>
+        <v>3010.373</v>
+      </c>
+      <c r="U96" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3463.4059999999999</v>
+        <v>4141.3760000000002</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
@@ -26903,7 +27295,7 @@
         <v>73</v>
       </c>
       <c r="I97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J97" t="s">
         <v>139</v>
@@ -26926,27 +27318,55 @@
       <c r="P97" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R97" s="6">
+        <v>217.09800000000001</v>
+      </c>
+      <c r="S97" s="6">
+        <f>R103</f>
+        <v>59.826000000000001</v>
+      </c>
+      <c r="T97" s="6">
+        <f>R104</f>
+        <v>2900.4360000000001</v>
+      </c>
+      <c r="U97" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>137.19900000000001</v>
+        <v>217.09800000000001</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R98" s="6">
+        <v>3463.4059999999999</v>
+      </c>
+      <c r="S98" s="6">
+        <f>R105</f>
+        <v>57.470999999999997</v>
+      </c>
+      <c r="T98" s="6">
+        <f>R106</f>
+        <v>2806.6509999999998</v>
+      </c>
+      <c r="U98" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3089.3789999999999</v>
+        <v>3463.4059999999999</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
@@ -26970,7 +27390,7 @@
         <v>73</v>
       </c>
       <c r="I99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J99" t="s">
         <v>139</v>
@@ -26993,27 +27413,47 @@
       <c r="P99" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R99" s="6">
+        <v>137.19900000000001</v>
+      </c>
+      <c r="S99" s="6">
+        <f>R107</f>
+        <v>51.988999999999997</v>
+      </c>
+      <c r="T99" s="6">
+        <f>R108</f>
+        <v>1929.9580000000001</v>
+      </c>
+      <c r="U99" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>83.022000000000006</v>
+        <v>137.19900000000001</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R100" s="6">
+        <v>3089.3789999999999</v>
+      </c>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3010.373</v>
+        <v>3089.3789999999999</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
@@ -27037,7 +27477,7 @@
         <v>73</v>
       </c>
       <c r="I101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J101" t="s">
         <v>139</v>
@@ -27060,27 +27500,33 @@
       <c r="P101" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R101" s="6">
+        <v>83.022000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>59.826000000000001</v>
+        <v>83.022000000000006</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
         <v>43</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F102" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R102" s="6">
+        <v>3010.373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2900.4360000000001</v>
+        <v>3010.373</v>
       </c>
       <c r="B103" t="s">
         <v>138</v>
@@ -27104,7 +27550,7 @@
         <v>73</v>
       </c>
       <c r="I103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J103" t="s">
         <v>139</v>
@@ -27127,27 +27573,33 @@
       <c r="P103" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R103" s="6">
+        <v>59.826000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>57.470999999999997</v>
+        <v>59.826000000000001</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F104" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R104" s="6">
+        <v>2900.4360000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2806.6509999999998</v>
+        <v>2900.4360000000001</v>
       </c>
       <c r="B105" t="s">
         <v>138</v>
@@ -27171,7 +27623,7 @@
         <v>73</v>
       </c>
       <c r="I105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J105" t="s">
         <v>139</v>
@@ -27194,27 +27646,33 @@
       <c r="P105" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R105" s="6">
+        <v>57.470999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>51.988999999999997</v>
+        <v>57.470999999999997</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C106" t="s">
         <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R106" s="6">
+        <v>2806.6509999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1929.9580000000001</v>
+        <v>2806.6509999999998</v>
       </c>
       <c r="B107" t="s">
         <v>138</v>
@@ -27238,7 +27696,7 @@
         <v>73</v>
       </c>
       <c r="I107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J107" t="s">
         <v>139</v>
@@ -27261,3073 +27719,3295 @@
       <c r="P107" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R107" s="6">
+        <v>51.988999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.48899999999999999</v>
+        <v>51.988999999999997</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F108" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="R108" s="6">
+        <v>1929.9580000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1929.9580000000001</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" t="s">
+        <v>71</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s">
+        <v>73</v>
+      </c>
+      <c r="I109" t="s">
+        <v>154</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+      <c r="K109" t="s">
+        <v>138</v>
+      </c>
+      <c r="L109" t="s">
+        <v>140</v>
+      </c>
+      <c r="M109" t="s">
+        <v>141</v>
+      </c>
+      <c r="N109" t="s">
+        <v>142</v>
+      </c>
+      <c r="O109">
+        <v>10</v>
+      </c>
+      <c r="P109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>156</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>72</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>73</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>156</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>139</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F112" t="s">
         <v>138</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G112" t="s">
         <v>140</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H112" t="s">
         <v>141</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I112" t="s">
         <v>142</v>
       </c>
-      <c r="J110">
+      <c r="J112">
         <v>10</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K112" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="R112" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>3145.0790000000002</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>131</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>61</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>66</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F113" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="Q113" s="6">
+        <v>3145.0790000000002</v>
+      </c>
+      <c r="R113" s="6">
+        <f>Q113</f>
+        <v>3145.0790000000002</v>
+      </c>
+      <c r="S113" s="6">
+        <f>Q114</f>
+        <v>6815.0709999999999</v>
+      </c>
+      <c r="T113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6815.0709999999999</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+      <c r="J114" t="s">
+        <v>139</v>
+      </c>
+      <c r="K114" t="s">
+        <v>138</v>
+      </c>
+      <c r="L114" t="s">
+        <v>140</v>
+      </c>
+      <c r="M114" t="s">
+        <v>141</v>
+      </c>
+      <c r="N114" t="s">
+        <v>142</v>
+      </c>
+      <c r="O114">
+        <v>10</v>
+      </c>
+      <c r="P114" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>6815.0709999999999</v>
+      </c>
+      <c r="R114" s="6">
+        <f>Q115</f>
+        <v>1492.5740000000001</v>
+      </c>
+      <c r="S114" s="6">
+        <f>Q116</f>
+        <v>4589.6270000000004</v>
+      </c>
+      <c r="T114" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1492.5740000000001</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>1492.5740000000001</v>
+      </c>
+      <c r="R115" s="6">
+        <f>Q117</f>
+        <v>353.97300000000001</v>
+      </c>
+      <c r="S115" s="6">
+        <f>Q118</f>
+        <v>3637.7570000000001</v>
+      </c>
+      <c r="T115" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4589.6270000000004</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+      <c r="J116" t="s">
+        <v>139</v>
+      </c>
+      <c r="K116" t="s">
+        <v>138</v>
+      </c>
+      <c r="L116" t="s">
+        <v>140</v>
+      </c>
+      <c r="M116" t="s">
+        <v>141</v>
+      </c>
+      <c r="N116" t="s">
+        <v>142</v>
+      </c>
+      <c r="O116">
+        <v>10</v>
+      </c>
+      <c r="P116" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>4589.6270000000004</v>
+      </c>
+      <c r="R116" s="6">
+        <f>Q119</f>
+        <v>217.72900000000001</v>
+      </c>
+      <c r="S116" s="6">
+        <f>Q120</f>
+        <v>3068.837</v>
+      </c>
+      <c r="T116" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>353.97300000000001</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>353.97300000000001</v>
+      </c>
+      <c r="R117" s="6">
+        <f>Q121</f>
+        <v>136.756</v>
+      </c>
+      <c r="S117" s="6">
+        <f>Q122</f>
+        <v>2784.3209999999999</v>
+      </c>
+      <c r="T117" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3637.7570000000001</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+      <c r="J118" t="s">
+        <v>139</v>
+      </c>
+      <c r="K118" t="s">
+        <v>138</v>
+      </c>
+      <c r="L118" t="s">
+        <v>140</v>
+      </c>
+      <c r="M118" t="s">
+        <v>141</v>
+      </c>
+      <c r="N118" t="s">
+        <v>142</v>
+      </c>
+      <c r="O118">
+        <v>10</v>
+      </c>
+      <c r="P118" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>3637.7570000000001</v>
+      </c>
+      <c r="R118" s="6">
+        <f>Q123</f>
+        <v>100.78700000000001</v>
+      </c>
+      <c r="S118" s="6">
+        <f>Q124</f>
+        <v>2770.8609999999999</v>
+      </c>
+      <c r="T118" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>217.72900000000001</v>
+      </c>
+      <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" t="s">
+        <v>61</v>
+      </c>
+      <c r="D119" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>217.72900000000001</v>
+      </c>
+      <c r="R119" s="6">
+        <f>Q125</f>
+        <v>102.24</v>
+      </c>
+      <c r="S119" s="6">
+        <f>Q126</f>
+        <v>2834.0059999999999</v>
+      </c>
+      <c r="T119" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3068.837</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+      <c r="J120" t="s">
+        <v>139</v>
+      </c>
+      <c r="K120" t="s">
+        <v>138</v>
+      </c>
+      <c r="L120" t="s">
+        <v>140</v>
+      </c>
+      <c r="M120" t="s">
+        <v>141</v>
+      </c>
+      <c r="N120" t="s">
+        <v>142</v>
+      </c>
+      <c r="O120">
+        <v>10</v>
+      </c>
+      <c r="P120" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>3068.837</v>
+      </c>
+      <c r="R120" s="6">
+        <f>Q127</f>
+        <v>79.747</v>
+      </c>
+      <c r="S120" s="6">
+        <f>Q128</f>
+        <v>2868.4169999999999</v>
+      </c>
+      <c r="T120" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>136.756</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>136.756</v>
+      </c>
+      <c r="R121" s="6">
+        <f>Q129</f>
+        <v>73.566999999999993</v>
+      </c>
+      <c r="S121" s="6">
+        <f>Q130</f>
+        <v>1780.6679999999999</v>
+      </c>
+      <c r="T121" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2784.3209999999999</v>
+      </c>
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+      <c r="J122" t="s">
+        <v>139</v>
+      </c>
+      <c r="K122" t="s">
+        <v>138</v>
+      </c>
+      <c r="L122" t="s">
+        <v>140</v>
+      </c>
+      <c r="M122" t="s">
+        <v>141</v>
+      </c>
+      <c r="N122" t="s">
+        <v>142</v>
+      </c>
+      <c r="O122">
+        <v>10</v>
+      </c>
+      <c r="P122" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>2784.3209999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>100.78700000000001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" t="s">
+        <v>90</v>
+      </c>
+      <c r="F123" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>100.78700000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2770.8609999999999</v>
+      </c>
+      <c r="B124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+      <c r="J124" t="s">
+        <v>139</v>
+      </c>
+      <c r="K124" t="s">
+        <v>138</v>
+      </c>
+      <c r="L124" t="s">
+        <v>140</v>
+      </c>
+      <c r="M124" t="s">
+        <v>141</v>
+      </c>
+      <c r="N124" t="s">
+        <v>142</v>
+      </c>
+      <c r="O124">
+        <v>10</v>
+      </c>
+      <c r="P124" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>2770.8609999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>102.24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>102.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2834.0059999999999</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
+        <v>71</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+      <c r="J126" t="s">
+        <v>139</v>
+      </c>
+      <c r="K126" t="s">
+        <v>138</v>
+      </c>
+      <c r="L126" t="s">
+        <v>140</v>
+      </c>
+      <c r="M126" t="s">
+        <v>141</v>
+      </c>
+      <c r="N126" t="s">
+        <v>142</v>
+      </c>
+      <c r="O126">
+        <v>10</v>
+      </c>
+      <c r="P126" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>2834.0059999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>79.747</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>79.747</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2868.4169999999999</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128" t="s">
+        <v>153</v>
+      </c>
+      <c r="J128" t="s">
+        <v>139</v>
+      </c>
+      <c r="K128" t="s">
+        <v>138</v>
+      </c>
+      <c r="L128" t="s">
+        <v>140</v>
+      </c>
+      <c r="M128" t="s">
+        <v>141</v>
+      </c>
+      <c r="N128" t="s">
+        <v>142</v>
+      </c>
+      <c r="O128">
+        <v>10</v>
+      </c>
+      <c r="P128" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>2868.4169999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>73.566999999999993</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>73.566999999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1780.6679999999999</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+      <c r="J130" t="s">
+        <v>139</v>
+      </c>
+      <c r="K130" t="s">
+        <v>138</v>
+      </c>
+      <c r="L130" t="s">
+        <v>140</v>
+      </c>
+      <c r="M130" t="s">
+        <v>141</v>
+      </c>
+      <c r="N130" t="s">
+        <v>142</v>
+      </c>
+      <c r="O130">
+        <v>10</v>
+      </c>
+      <c r="P130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>1780.6679999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.375</v>
+      </c>
+      <c r="B131" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" t="s">
+        <v>138</v>
+      </c>
+      <c r="G133" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" t="s">
+        <v>141</v>
+      </c>
+      <c r="I133" t="s">
+        <v>142</v>
+      </c>
+      <c r="J133">
+        <v>10</v>
+      </c>
+      <c r="K133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2909.549</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>132</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B135" t="s">
         <v>133</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C135" t="s">
         <v>134</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D135" t="s">
         <v>135</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>6815.0709999999999</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6688.5479999999998</v>
+      </c>
+      <c r="B136" t="s">
         <v>138</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C136" t="s">
         <v>16</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D136" t="s">
         <v>44</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E136" t="s">
         <v>35</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F136" t="s">
         <v>71</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G136" t="s">
         <v>72</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H136" t="s">
         <v>73</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I136" t="s">
         <v>137</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J136" t="s">
         <v>139</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K136" t="s">
         <v>138</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L136" t="s">
         <v>140</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M136" t="s">
         <v>141</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N136" t="s">
         <v>142</v>
       </c>
-      <c r="O113">
+      <c r="O136">
         <v>10</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P136" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1492.5740000000001</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1507.0329999999999</v>
+      </c>
+      <c r="B137" t="s">
         <v>143</v>
       </c>
-      <c r="C114" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+      <c r="D137" t="s">
         <v>75</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F137" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>4589.6270000000004</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4349.8689999999997</v>
+      </c>
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C138" t="s">
         <v>16</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D138" t="s">
         <v>44</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E138" t="s">
         <v>35</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F138" t="s">
         <v>71</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G138" t="s">
         <v>72</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H138" t="s">
         <v>73</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I138" t="s">
         <v>144</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J138" t="s">
         <v>139</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K138" t="s">
         <v>138</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L138" t="s">
         <v>140</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M138" t="s">
         <v>141</v>
       </c>
-      <c r="N115" t="s">
+      <c r="N138" t="s">
         <v>142</v>
       </c>
-      <c r="O115">
+      <c r="O138">
         <v>10</v>
       </c>
-      <c r="P115" t="s">
+      <c r="P138" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>353.97300000000001</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>461.87400000000002</v>
+      </c>
+      <c r="B139" t="s">
         <v>145</v>
       </c>
-      <c r="C116" t="s">
-        <v>61</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C139" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139" t="s">
         <v>78</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F139" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3637.7570000000001</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3576.9459999999999</v>
+      </c>
+      <c r="B140" t="s">
         <v>138</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C140" t="s">
         <v>16</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D140" t="s">
         <v>44</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E140" t="s">
         <v>35</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F140" t="s">
         <v>71</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G140" t="s">
         <v>72</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H140" t="s">
         <v>73</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I140" t="s">
         <v>146</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J140" t="s">
         <v>139</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K140" t="s">
         <v>138</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L140" t="s">
         <v>140</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M140" t="s">
         <v>141</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N140" t="s">
         <v>142</v>
       </c>
-      <c r="O117">
+      <c r="O140">
         <v>10</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P140" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>217.72900000000001</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>206.62200000000001</v>
+      </c>
+      <c r="B141" t="s">
         <v>147</v>
       </c>
-      <c r="C118" t="s">
-        <v>61</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C141" t="s">
+        <v>62</v>
+      </c>
+      <c r="D141" t="s">
         <v>82</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F141" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>3068.837</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3108.6210000000001</v>
+      </c>
+      <c r="B142" t="s">
         <v>138</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C142" t="s">
         <v>16</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D142" t="s">
         <v>44</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E142" t="s">
         <v>35</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F142" t="s">
         <v>71</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G142" t="s">
         <v>72</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H142" t="s">
         <v>73</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I142" t="s">
         <v>148</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J142" t="s">
         <v>139</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K142" t="s">
         <v>138</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L142" t="s">
         <v>140</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M142" t="s">
         <v>141</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N142" t="s">
         <v>142</v>
       </c>
-      <c r="O119">
+      <c r="O142">
         <v>10</v>
       </c>
-      <c r="P119" t="s">
+      <c r="P142" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>136.756</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>128.70400000000001</v>
+      </c>
+      <c r="B143" t="s">
         <v>149</v>
       </c>
-      <c r="C120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
         <v>86</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F143" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>2784.3209999999999</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2797.7150000000001</v>
+      </c>
+      <c r="B144" t="s">
         <v>138</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C144" t="s">
         <v>16</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D144" t="s">
         <v>44</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E144" t="s">
         <v>35</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F144" t="s">
         <v>71</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G144" t="s">
         <v>72</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H144" t="s">
         <v>73</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I144" t="s">
         <v>150</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J144" t="s">
         <v>139</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K144" t="s">
         <v>138</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L144" t="s">
         <v>140</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M144" t="s">
         <v>141</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N144" t="s">
         <v>142</v>
       </c>
-      <c r="O121">
+      <c r="O144">
         <v>10</v>
       </c>
-      <c r="P121" t="s">
+      <c r="P144" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>100.78700000000001</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" t="s">
-        <v>61</v>
-      </c>
-      <c r="D122" t="s">
-        <v>90</v>
-      </c>
-      <c r="F122" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>2770.8609999999999</v>
-      </c>
-      <c r="B123" t="s">
-        <v>138</v>
-      </c>
-      <c r="C123" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" t="s">
-        <v>35</v>
-      </c>
-      <c r="F123" t="s">
-        <v>71</v>
-      </c>
-      <c r="G123" t="s">
-        <v>72</v>
-      </c>
-      <c r="H123" t="s">
-        <v>73</v>
-      </c>
-      <c r="I123" t="s">
-        <v>151</v>
-      </c>
-      <c r="J123" t="s">
-        <v>139</v>
-      </c>
-      <c r="K123" t="s">
-        <v>138</v>
-      </c>
-      <c r="L123" t="s">
-        <v>140</v>
-      </c>
-      <c r="M123" t="s">
-        <v>141</v>
-      </c>
-      <c r="N123" t="s">
-        <v>142</v>
-      </c>
-      <c r="O123">
-        <v>10</v>
-      </c>
-      <c r="P123" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>102.24</v>
-      </c>
-      <c r="B124" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" t="s">
-        <v>61</v>
-      </c>
-      <c r="D124" t="s">
-        <v>94</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2834.0059999999999</v>
-      </c>
-      <c r="B125" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" t="s">
-        <v>35</v>
-      </c>
-      <c r="F125" t="s">
-        <v>71</v>
-      </c>
-      <c r="G125" t="s">
-        <v>72</v>
-      </c>
-      <c r="H125" t="s">
-        <v>73</v>
-      </c>
-      <c r="I125" t="s">
-        <v>152</v>
-      </c>
-      <c r="J125" t="s">
-        <v>139</v>
-      </c>
-      <c r="K125" t="s">
-        <v>138</v>
-      </c>
-      <c r="L125" t="s">
-        <v>140</v>
-      </c>
-      <c r="M125" t="s">
-        <v>141</v>
-      </c>
-      <c r="N125" t="s">
-        <v>142</v>
-      </c>
-      <c r="O125">
-        <v>10</v>
-      </c>
-      <c r="P125" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>79.747</v>
-      </c>
-      <c r="B126" t="s">
-        <v>97</v>
-      </c>
-      <c r="C126" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" t="s">
-        <v>98</v>
-      </c>
-      <c r="F126" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>2868.4169999999999</v>
-      </c>
-      <c r="B127" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>44</v>
-      </c>
-      <c r="E127" t="s">
-        <v>35</v>
-      </c>
-      <c r="F127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G127" t="s">
-        <v>72</v>
-      </c>
-      <c r="H127" t="s">
-        <v>73</v>
-      </c>
-      <c r="I127" t="s">
-        <v>153</v>
-      </c>
-      <c r="J127" t="s">
-        <v>139</v>
-      </c>
-      <c r="K127" t="s">
-        <v>138</v>
-      </c>
-      <c r="L127" t="s">
-        <v>140</v>
-      </c>
-      <c r="M127" t="s">
-        <v>141</v>
-      </c>
-      <c r="N127" t="s">
-        <v>142</v>
-      </c>
-      <c r="O127">
-        <v>10</v>
-      </c>
-      <c r="P127" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>73.566999999999993</v>
-      </c>
-      <c r="B128" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128" t="s">
-        <v>61</v>
-      </c>
-      <c r="D128" t="s">
-        <v>102</v>
-      </c>
-      <c r="F128" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1780.6679999999999</v>
-      </c>
-      <c r="B129" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" t="s">
-        <v>35</v>
-      </c>
-      <c r="F129" t="s">
-        <v>71</v>
-      </c>
-      <c r="G129" t="s">
-        <v>72</v>
-      </c>
-      <c r="H129" t="s">
-        <v>73</v>
-      </c>
-      <c r="I129" t="s">
-        <v>154</v>
-      </c>
-      <c r="J129" t="s">
-        <v>139</v>
-      </c>
-      <c r="K129" t="s">
-        <v>138</v>
-      </c>
-      <c r="L129" t="s">
-        <v>140</v>
-      </c>
-      <c r="M129" t="s">
-        <v>141</v>
-      </c>
-      <c r="N129" t="s">
-        <v>142</v>
-      </c>
-      <c r="O129">
-        <v>10</v>
-      </c>
-      <c r="P129" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>0.375</v>
-      </c>
-      <c r="B130" t="s">
-        <v>105</v>
-      </c>
-      <c r="C130" t="s">
-        <v>61</v>
-      </c>
-      <c r="D130" t="s">
-        <v>106</v>
-      </c>
-      <c r="F130" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>156</v>
-      </c>
-      <c r="B132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" t="s">
-        <v>140</v>
-      </c>
-      <c r="H132" t="s">
-        <v>141</v>
-      </c>
-      <c r="I132" t="s">
-        <v>142</v>
-      </c>
-      <c r="J132">
-        <v>10</v>
-      </c>
-      <c r="K132" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>2909.549</v>
-      </c>
-      <c r="B133" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" t="s">
-        <v>62</v>
-      </c>
-      <c r="D133" t="s">
-        <v>66</v>
-      </c>
-      <c r="F133" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" t="s">
-        <v>134</v>
-      </c>
-      <c r="D134" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>6688.5479999999998</v>
-      </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" t="s">
-        <v>44</v>
-      </c>
-      <c r="E135" t="s">
-        <v>35</v>
-      </c>
-      <c r="F135" t="s">
-        <v>71</v>
-      </c>
-      <c r="G135" t="s">
-        <v>72</v>
-      </c>
-      <c r="H135" t="s">
-        <v>73</v>
-      </c>
-      <c r="I135" t="s">
-        <v>137</v>
-      </c>
-      <c r="J135" t="s">
-        <v>139</v>
-      </c>
-      <c r="K135" t="s">
-        <v>138</v>
-      </c>
-      <c r="L135" t="s">
-        <v>140</v>
-      </c>
-      <c r="M135" t="s">
-        <v>141</v>
-      </c>
-      <c r="N135" t="s">
-        <v>142</v>
-      </c>
-      <c r="O135">
-        <v>10</v>
-      </c>
-      <c r="P135" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1507.0329999999999</v>
-      </c>
-      <c r="B136" t="s">
-        <v>143</v>
-      </c>
-      <c r="C136" t="s">
-        <v>62</v>
-      </c>
-      <c r="D136" t="s">
-        <v>75</v>
-      </c>
-      <c r="F136" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>4349.8689999999997</v>
-      </c>
-      <c r="B137" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>44</v>
-      </c>
-      <c r="E137" t="s">
-        <v>35</v>
-      </c>
-      <c r="F137" t="s">
-        <v>71</v>
-      </c>
-      <c r="G137" t="s">
-        <v>72</v>
-      </c>
-      <c r="H137" t="s">
-        <v>73</v>
-      </c>
-      <c r="I137" t="s">
-        <v>144</v>
-      </c>
-      <c r="J137" t="s">
-        <v>139</v>
-      </c>
-      <c r="K137" t="s">
-        <v>138</v>
-      </c>
-      <c r="L137" t="s">
-        <v>140</v>
-      </c>
-      <c r="M137" t="s">
-        <v>141</v>
-      </c>
-      <c r="N137" t="s">
-        <v>142</v>
-      </c>
-      <c r="O137">
-        <v>10</v>
-      </c>
-      <c r="P137" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>461.87400000000002</v>
-      </c>
-      <c r="B138" t="s">
-        <v>145</v>
-      </c>
-      <c r="C138" t="s">
-        <v>62</v>
-      </c>
-      <c r="D138" t="s">
-        <v>78</v>
-      </c>
-      <c r="F138" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>3576.9459999999999</v>
-      </c>
-      <c r="B139" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" t="s">
-        <v>35</v>
-      </c>
-      <c r="F139" t="s">
-        <v>71</v>
-      </c>
-      <c r="G139" t="s">
-        <v>72</v>
-      </c>
-      <c r="H139" t="s">
-        <v>73</v>
-      </c>
-      <c r="I139" t="s">
-        <v>146</v>
-      </c>
-      <c r="J139" t="s">
-        <v>139</v>
-      </c>
-      <c r="K139" t="s">
-        <v>138</v>
-      </c>
-      <c r="L139" t="s">
-        <v>140</v>
-      </c>
-      <c r="M139" t="s">
-        <v>141</v>
-      </c>
-      <c r="N139" t="s">
-        <v>142</v>
-      </c>
-      <c r="O139">
-        <v>10</v>
-      </c>
-      <c r="P139" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>206.62200000000001</v>
-      </c>
-      <c r="B140" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" t="s">
-        <v>62</v>
-      </c>
-      <c r="D140" t="s">
-        <v>82</v>
-      </c>
-      <c r="F140" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>3108.6210000000001</v>
-      </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-      <c r="C141" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" t="s">
-        <v>71</v>
-      </c>
-      <c r="G141" t="s">
-        <v>72</v>
-      </c>
-      <c r="H141" t="s">
-        <v>73</v>
-      </c>
-      <c r="I141" t="s">
-        <v>148</v>
-      </c>
-      <c r="J141" t="s">
-        <v>139</v>
-      </c>
-      <c r="K141" t="s">
-        <v>138</v>
-      </c>
-      <c r="L141" t="s">
-        <v>140</v>
-      </c>
-      <c r="M141" t="s">
-        <v>141</v>
-      </c>
-      <c r="N141" t="s">
-        <v>142</v>
-      </c>
-      <c r="O141">
-        <v>10</v>
-      </c>
-      <c r="P141" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>128.70400000000001</v>
-      </c>
-      <c r="B142" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" t="s">
-        <v>62</v>
-      </c>
-      <c r="D142" t="s">
-        <v>86</v>
-      </c>
-      <c r="F142" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>2797.7150000000001</v>
-      </c>
-      <c r="B143" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" t="s">
-        <v>35</v>
-      </c>
-      <c r="F143" t="s">
-        <v>71</v>
-      </c>
-      <c r="G143" t="s">
-        <v>72</v>
-      </c>
-      <c r="H143" t="s">
-        <v>73</v>
-      </c>
-      <c r="I143" t="s">
-        <v>150</v>
-      </c>
-      <c r="J143" t="s">
-        <v>139</v>
-      </c>
-      <c r="K143" t="s">
-        <v>138</v>
-      </c>
-      <c r="L143" t="s">
-        <v>140</v>
-      </c>
-      <c r="M143" t="s">
-        <v>141</v>
-      </c>
-      <c r="N143" t="s">
-        <v>142</v>
-      </c>
-      <c r="O143">
-        <v>10</v>
-      </c>
-      <c r="P143" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>91.724000000000004</v>
-      </c>
-      <c r="B144" t="s">
-        <v>89</v>
-      </c>
-      <c r="C144" t="s">
-        <v>62</v>
-      </c>
-      <c r="D144" t="s">
-        <v>90</v>
-      </c>
-      <c r="F144" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2703.5419999999999</v>
+        <v>91.724000000000004</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D145" t="s">
-        <v>44</v>
-      </c>
-      <c r="E145" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F145" t="s">
-        <v>71</v>
-      </c>
-      <c r="G145" t="s">
-        <v>72</v>
-      </c>
-      <c r="H145" t="s">
-        <v>73</v>
-      </c>
-      <c r="I145" t="s">
-        <v>151</v>
-      </c>
-      <c r="J145" t="s">
-        <v>139</v>
-      </c>
-      <c r="K145" t="s">
-        <v>138</v>
-      </c>
-      <c r="L145" t="s">
-        <v>140</v>
-      </c>
-      <c r="M145" t="s">
-        <v>141</v>
-      </c>
-      <c r="N145" t="s">
-        <v>142</v>
-      </c>
-      <c r="O145">
-        <v>10</v>
-      </c>
-      <c r="P145" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>106.14</v>
+        <v>2703.5419999999999</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146" t="s">
+        <v>151</v>
+      </c>
+      <c r="J146" t="s">
+        <v>139</v>
+      </c>
+      <c r="K146" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" t="s">
+        <v>140</v>
+      </c>
+      <c r="M146" t="s">
+        <v>141</v>
+      </c>
+      <c r="N146" t="s">
+        <v>142</v>
+      </c>
+      <c r="O146">
+        <v>10</v>
+      </c>
+      <c r="P146" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2640.951</v>
+        <v>106.14</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D147" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F147" t="s">
-        <v>71</v>
-      </c>
-      <c r="G147" t="s">
-        <v>72</v>
-      </c>
-      <c r="H147" t="s">
-        <v>73</v>
-      </c>
-      <c r="I147" t="s">
-        <v>152</v>
-      </c>
-      <c r="J147" t="s">
-        <v>139</v>
-      </c>
-      <c r="K147" t="s">
-        <v>138</v>
-      </c>
-      <c r="L147" t="s">
-        <v>140</v>
-      </c>
-      <c r="M147" t="s">
-        <v>141</v>
-      </c>
-      <c r="N147" t="s">
-        <v>142</v>
-      </c>
-      <c r="O147">
-        <v>10</v>
-      </c>
-      <c r="P147" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>69.91</v>
+        <v>2640.951</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>73</v>
+      </c>
+      <c r="I148" t="s">
+        <v>152</v>
+      </c>
+      <c r="J148" t="s">
+        <v>139</v>
+      </c>
+      <c r="K148" t="s">
+        <v>138</v>
+      </c>
+      <c r="L148" t="s">
+        <v>140</v>
+      </c>
+      <c r="M148" t="s">
+        <v>141</v>
+      </c>
+      <c r="N148" t="s">
+        <v>142</v>
+      </c>
+      <c r="O148">
+        <v>10</v>
+      </c>
+      <c r="P148" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2518.36</v>
+        <v>69.91</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D149" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F149" t="s">
-        <v>71</v>
-      </c>
-      <c r="G149" t="s">
-        <v>72</v>
-      </c>
-      <c r="H149" t="s">
-        <v>73</v>
-      </c>
-      <c r="I149" t="s">
-        <v>153</v>
-      </c>
-      <c r="J149" t="s">
-        <v>139</v>
-      </c>
-      <c r="K149" t="s">
-        <v>138</v>
-      </c>
-      <c r="L149" t="s">
-        <v>140</v>
-      </c>
-      <c r="M149" t="s">
-        <v>141</v>
-      </c>
-      <c r="N149" t="s">
-        <v>142</v>
-      </c>
-      <c r="O149">
-        <v>10</v>
-      </c>
-      <c r="P149" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>59.323</v>
+        <v>2518.36</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C150" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="E150" t="s">
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>73</v>
+      </c>
+      <c r="I150" t="s">
+        <v>153</v>
+      </c>
+      <c r="J150" t="s">
+        <v>139</v>
+      </c>
+      <c r="K150" t="s">
+        <v>138</v>
+      </c>
+      <c r="L150" t="s">
+        <v>140</v>
+      </c>
+      <c r="M150" t="s">
+        <v>141</v>
+      </c>
+      <c r="N150" t="s">
+        <v>142</v>
+      </c>
+      <c r="O150">
+        <v>10</v>
+      </c>
+      <c r="P150" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1734.7940000000001</v>
+        <v>59.323</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E151" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F151" t="s">
-        <v>71</v>
-      </c>
-      <c r="G151" t="s">
-        <v>72</v>
-      </c>
-      <c r="H151" t="s">
-        <v>73</v>
-      </c>
-      <c r="I151" t="s">
-        <v>154</v>
-      </c>
-      <c r="J151" t="s">
-        <v>139</v>
-      </c>
-      <c r="K151" t="s">
-        <v>138</v>
-      </c>
-      <c r="L151" t="s">
-        <v>140</v>
-      </c>
-      <c r="M151" t="s">
-        <v>141</v>
-      </c>
-      <c r="N151" t="s">
-        <v>142</v>
-      </c>
-      <c r="O151">
-        <v>10</v>
-      </c>
-      <c r="P151" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>1734.7940000000001</v>
+      </c>
+      <c r="B152" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152" t="s">
+        <v>154</v>
+      </c>
+      <c r="J152" t="s">
+        <v>139</v>
+      </c>
+      <c r="K152" t="s">
+        <v>138</v>
+      </c>
+      <c r="L152" t="s">
+        <v>140</v>
+      </c>
+      <c r="M152" t="s">
+        <v>141</v>
+      </c>
+      <c r="N152" t="s">
+        <v>142</v>
+      </c>
+      <c r="O152">
+        <v>10</v>
+      </c>
+      <c r="P152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>0.35899999999999999</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>105</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>62</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>106</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" t="s">
-        <v>73</v>
-      </c>
-      <c r="D154" t="s">
-        <v>156</v>
-      </c>
-      <c r="E154" t="s">
-        <v>139</v>
-      </c>
-      <c r="F154" t="s">
-        <v>138</v>
-      </c>
-      <c r="G154" t="s">
-        <v>140</v>
-      </c>
-      <c r="H154" t="s">
-        <v>141</v>
-      </c>
-      <c r="I154" t="s">
-        <v>142</v>
-      </c>
-      <c r="J154">
-        <v>10</v>
-      </c>
-      <c r="K154" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" t="s">
+        <v>138</v>
+      </c>
+      <c r="G155" t="s">
+        <v>140</v>
+      </c>
+      <c r="H155" t="s">
+        <v>141</v>
+      </c>
+      <c r="I155" t="s">
+        <v>142</v>
+      </c>
+      <c r="J155">
+        <v>10</v>
+      </c>
+      <c r="K155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>132</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>133</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>134</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>135</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E156" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>4300.9369999999999</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>17</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>43</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>66</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>157</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>158</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H157" t="s">
         <v>15</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I157" t="s">
         <v>140</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J157" t="s">
         <v>36</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K157" t="s">
         <v>142</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L157" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>132</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>133</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>134</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>135</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E158" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>7016.1710000000003</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>138</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>16</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>44</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E159" t="s">
         <v>35</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F159" t="s">
         <v>71</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G159" t="s">
         <v>72</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H159" t="s">
         <v>73</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I159" t="s">
         <v>137</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J159" t="s">
         <v>139</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K159" t="s">
         <v>138</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L159" t="s">
         <v>140</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M159" t="s">
         <v>141</v>
       </c>
-      <c r="N158" t="s">
+      <c r="N159" t="s">
         <v>142</v>
       </c>
-      <c r="O158">
+      <c r="O159">
         <v>10</v>
       </c>
-      <c r="P158" t="s">
+      <c r="P159" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>132</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>133</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>134</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>135</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E160" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>2646.8939999999998</v>
-      </c>
-      <c r="B160" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" t="s">
-        <v>43</v>
-      </c>
-      <c r="D160" t="s">
-        <v>75</v>
-      </c>
-      <c r="F160" t="s">
-        <v>157</v>
-      </c>
-      <c r="G160" t="s">
-        <v>158</v>
-      </c>
-      <c r="H160" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" t="s">
-        <v>140</v>
-      </c>
-      <c r="J160" t="s">
-        <v>36</v>
-      </c>
-      <c r="K160" t="s">
-        <v>142</v>
-      </c>
-      <c r="L160" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>4320.8239999999996</v>
+        <v>2646.8939999999998</v>
       </c>
       <c r="B161" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>44</v>
-      </c>
-      <c r="E161" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F161" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G161" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H161" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J161" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K161" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L161" t="s">
-        <v>140</v>
-      </c>
-      <c r="M161" t="s">
-        <v>141</v>
-      </c>
-      <c r="N161" t="s">
-        <v>142</v>
-      </c>
-      <c r="O161">
-        <v>10</v>
-      </c>
-      <c r="P161" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1287.5609999999999</v>
+        <v>4320.8239999999996</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G162" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I162" t="s">
+        <v>144</v>
+      </c>
+      <c r="J162" t="s">
+        <v>139</v>
+      </c>
+      <c r="K162" t="s">
+        <v>138</v>
+      </c>
+      <c r="L162" t="s">
         <v>140</v>
       </c>
-      <c r="J162" t="s">
-        <v>36</v>
-      </c>
-      <c r="K162" t="s">
+      <c r="M162" t="s">
+        <v>141</v>
+      </c>
+      <c r="N162" t="s">
         <v>142</v>
       </c>
-      <c r="L162" t="s">
-        <v>159</v>
+      <c r="O162">
+        <v>10</v>
+      </c>
+      <c r="P162" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3570.0219999999999</v>
+        <v>1287.5609999999999</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D163" t="s">
-        <v>44</v>
-      </c>
-      <c r="E163" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F163" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G163" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H163" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J163" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K163" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L163" t="s">
-        <v>140</v>
-      </c>
-      <c r="M163" t="s">
-        <v>141</v>
-      </c>
-      <c r="N163" t="s">
-        <v>142</v>
-      </c>
-      <c r="O163">
-        <v>10</v>
-      </c>
-      <c r="P163" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>593.19799999999998</v>
+        <v>3570.0219999999999</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C164" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G164" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I164" t="s">
+        <v>146</v>
+      </c>
+      <c r="J164" t="s">
+        <v>139</v>
+      </c>
+      <c r="K164" t="s">
+        <v>138</v>
+      </c>
+      <c r="L164" t="s">
         <v>140</v>
       </c>
-      <c r="J164" t="s">
-        <v>36</v>
-      </c>
-      <c r="K164" t="s">
+      <c r="M164" t="s">
+        <v>141</v>
+      </c>
+      <c r="N164" t="s">
         <v>142</v>
       </c>
-      <c r="L164" t="s">
-        <v>159</v>
+      <c r="O164">
+        <v>10</v>
+      </c>
+      <c r="P164" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3055.5459999999998</v>
+        <v>593.19799999999998</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
-      </c>
-      <c r="E165" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F165" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G165" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H165" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J165" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K165" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L165" t="s">
-        <v>140</v>
-      </c>
-      <c r="M165" t="s">
-        <v>141</v>
-      </c>
-      <c r="N165" t="s">
-        <v>142</v>
-      </c>
-      <c r="O165">
-        <v>10</v>
-      </c>
-      <c r="P165" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>269.40899999999999</v>
+        <v>3055.5459999999998</v>
       </c>
       <c r="B166" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G166" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I166" t="s">
+        <v>148</v>
+      </c>
+      <c r="J166" t="s">
+        <v>139</v>
+      </c>
+      <c r="K166" t="s">
+        <v>138</v>
+      </c>
+      <c r="L166" t="s">
         <v>140</v>
       </c>
-      <c r="J166" t="s">
-        <v>36</v>
-      </c>
-      <c r="K166" t="s">
+      <c r="M166" t="s">
+        <v>141</v>
+      </c>
+      <c r="N166" t="s">
         <v>142</v>
       </c>
-      <c r="L166" t="s">
-        <v>159</v>
+      <c r="O166">
+        <v>10</v>
+      </c>
+      <c r="P166" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2786.7440000000001</v>
+        <v>269.40899999999999</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D167" t="s">
-        <v>44</v>
-      </c>
-      <c r="E167" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F167" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G167" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H167" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J167" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K167" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L167" t="s">
-        <v>140</v>
-      </c>
-      <c r="M167" t="s">
-        <v>141</v>
-      </c>
-      <c r="N167" t="s">
-        <v>142</v>
-      </c>
-      <c r="O167">
-        <v>10</v>
-      </c>
-      <c r="P167" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>78.135999999999996</v>
+        <v>2786.7440000000001</v>
       </c>
       <c r="B168" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="E168" t="s">
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>73</v>
+      </c>
+      <c r="I168" t="s">
+        <v>150</v>
+      </c>
+      <c r="J168" t="s">
+        <v>139</v>
+      </c>
+      <c r="K168" t="s">
+        <v>138</v>
+      </c>
+      <c r="L168" t="s">
+        <v>140</v>
+      </c>
+      <c r="M168" t="s">
+        <v>141</v>
+      </c>
+      <c r="N168" t="s">
+        <v>142</v>
+      </c>
+      <c r="O168">
+        <v>10</v>
+      </c>
+      <c r="P168" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2706.9349999999999</v>
+        <v>78.135999999999996</v>
       </c>
       <c r="B169" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
-        <v>44</v>
-      </c>
-      <c r="E169" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F169" t="s">
-        <v>71</v>
-      </c>
-      <c r="G169" t="s">
-        <v>72</v>
-      </c>
-      <c r="H169" t="s">
-        <v>73</v>
-      </c>
-      <c r="I169" t="s">
-        <v>151</v>
-      </c>
-      <c r="J169" t="s">
-        <v>139</v>
-      </c>
-      <c r="K169" t="s">
-        <v>138</v>
-      </c>
-      <c r="L169" t="s">
-        <v>140</v>
-      </c>
-      <c r="M169" t="s">
-        <v>141</v>
-      </c>
-      <c r="N169" t="s">
-        <v>142</v>
-      </c>
-      <c r="O169">
-        <v>10</v>
-      </c>
-      <c r="P169" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>54.868000000000002</v>
+        <v>2706.9349999999999</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="E170" t="s">
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170" t="s">
+        <v>151</v>
+      </c>
+      <c r="J170" t="s">
+        <v>139</v>
+      </c>
+      <c r="K170" t="s">
+        <v>138</v>
+      </c>
+      <c r="L170" t="s">
+        <v>140</v>
+      </c>
+      <c r="M170" t="s">
+        <v>141</v>
+      </c>
+      <c r="N170" t="s">
+        <v>142</v>
+      </c>
+      <c r="O170">
+        <v>10</v>
+      </c>
+      <c r="P170" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2578.6669999999999</v>
+        <v>54.868000000000002</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>44</v>
-      </c>
-      <c r="E171" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F171" t="s">
-        <v>71</v>
-      </c>
-      <c r="G171" t="s">
-        <v>72</v>
-      </c>
-      <c r="H171" t="s">
-        <v>73</v>
-      </c>
-      <c r="I171" t="s">
-        <v>152</v>
-      </c>
-      <c r="J171" t="s">
-        <v>139</v>
-      </c>
-      <c r="K171" t="s">
-        <v>138</v>
-      </c>
-      <c r="L171" t="s">
-        <v>140</v>
-      </c>
-      <c r="M171" t="s">
-        <v>141</v>
-      </c>
-      <c r="N171" t="s">
-        <v>142</v>
-      </c>
-      <c r="O171">
-        <v>10</v>
-      </c>
-      <c r="P171" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>51.046999999999997</v>
+        <v>2578.6669999999999</v>
       </c>
       <c r="B172" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" t="s">
+        <v>73</v>
+      </c>
+      <c r="I172" t="s">
+        <v>152</v>
+      </c>
+      <c r="J172" t="s">
+        <v>139</v>
+      </c>
+      <c r="K172" t="s">
+        <v>138</v>
+      </c>
+      <c r="L172" t="s">
+        <v>140</v>
+      </c>
+      <c r="M172" t="s">
+        <v>141</v>
+      </c>
+      <c r="N172" t="s">
+        <v>142</v>
+      </c>
+      <c r="O172">
+        <v>10</v>
+      </c>
+      <c r="P172" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2522.5309999999999</v>
+        <v>51.046999999999997</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D173" t="s">
-        <v>44</v>
-      </c>
-      <c r="E173" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F173" t="s">
-        <v>71</v>
-      </c>
-      <c r="G173" t="s">
-        <v>72</v>
-      </c>
-      <c r="H173" t="s">
-        <v>73</v>
-      </c>
-      <c r="I173" t="s">
-        <v>153</v>
-      </c>
-      <c r="J173" t="s">
-        <v>139</v>
-      </c>
-      <c r="K173" t="s">
-        <v>138</v>
-      </c>
-      <c r="L173" t="s">
-        <v>140</v>
-      </c>
-      <c r="M173" t="s">
-        <v>141</v>
-      </c>
-      <c r="N173" t="s">
-        <v>142</v>
-      </c>
-      <c r="O173">
-        <v>10</v>
-      </c>
-      <c r="P173" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>45.222000000000001</v>
+        <v>2522.5309999999999</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="E174" t="s">
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G174" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" t="s">
+        <v>73</v>
+      </c>
+      <c r="I174" t="s">
+        <v>153</v>
+      </c>
+      <c r="J174" t="s">
+        <v>139</v>
+      </c>
+      <c r="K174" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" t="s">
+        <v>140</v>
+      </c>
+      <c r="M174" t="s">
+        <v>141</v>
+      </c>
+      <c r="N174" t="s">
+        <v>142</v>
+      </c>
+      <c r="O174">
+        <v>10</v>
+      </c>
+      <c r="P174" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1763.481</v>
+        <v>45.222000000000001</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D175" t="s">
-        <v>44</v>
-      </c>
-      <c r="E175" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F175" t="s">
-        <v>71</v>
-      </c>
-      <c r="G175" t="s">
-        <v>72</v>
-      </c>
-      <c r="H175" t="s">
-        <v>73</v>
-      </c>
-      <c r="I175" t="s">
-        <v>154</v>
-      </c>
-      <c r="J175" t="s">
-        <v>139</v>
-      </c>
-      <c r="K175" t="s">
-        <v>138</v>
-      </c>
-      <c r="L175" t="s">
-        <v>140</v>
-      </c>
-      <c r="M175" t="s">
-        <v>141</v>
-      </c>
-      <c r="N175" t="s">
-        <v>142</v>
-      </c>
-      <c r="O175">
-        <v>10</v>
-      </c>
-      <c r="P175" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>1763.481</v>
+      </c>
+      <c r="B176" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176" t="s">
+        <v>154</v>
+      </c>
+      <c r="J176" t="s">
+        <v>139</v>
+      </c>
+      <c r="K176" t="s">
+        <v>138</v>
+      </c>
+      <c r="L176" t="s">
+        <v>140</v>
+      </c>
+      <c r="M176" t="s">
+        <v>141</v>
+      </c>
+      <c r="N176" t="s">
+        <v>142</v>
+      </c>
+      <c r="O176">
+        <v>10</v>
+      </c>
+      <c r="P176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>0.38800000000000001</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>105</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>43</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>106</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>156</v>
-      </c>
-      <c r="B178" t="s">
-        <v>72</v>
-      </c>
-      <c r="C178" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" t="s">
-        <v>156</v>
-      </c>
-      <c r="E178" t="s">
-        <v>139</v>
-      </c>
-      <c r="F178" t="s">
-        <v>138</v>
-      </c>
-      <c r="G178" t="s">
-        <v>140</v>
-      </c>
-      <c r="H178" t="s">
-        <v>141</v>
-      </c>
-      <c r="I178" t="s">
-        <v>142</v>
-      </c>
-      <c r="J178">
-        <v>10</v>
-      </c>
-      <c r="K178" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" t="s">
+        <v>140</v>
+      </c>
+      <c r="H179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I179" t="s">
+        <v>142</v>
+      </c>
+      <c r="J179">
+        <v>10</v>
+      </c>
+      <c r="K179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>132</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>133</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>134</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>135</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E180" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>4164.5879999999997</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>17</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>61</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>66</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>157</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G181" t="s">
         <v>158</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H181" t="s">
         <v>15</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I181" t="s">
         <v>140</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J181" t="s">
         <v>36</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K181" t="s">
         <v>142</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L181" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>132</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>133</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>134</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>135</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>6538.6490000000003</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>138</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>16</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>44</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E183" t="s">
         <v>35</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>71</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G183" t="s">
         <v>72</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>73</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I183" t="s">
         <v>137</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J183" t="s">
         <v>139</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K183" t="s">
         <v>138</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L183" t="s">
         <v>140</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M183" t="s">
         <v>141</v>
       </c>
-      <c r="N182" t="s">
+      <c r="N183" t="s">
         <v>142</v>
       </c>
-      <c r="O182">
+      <c r="O183">
         <v>10</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P183" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>132</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>133</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>134</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>135</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>2668.9180000000001</v>
-      </c>
-      <c r="B184" t="s">
-        <v>38</v>
-      </c>
-      <c r="C184" t="s">
-        <v>61</v>
-      </c>
-      <c r="D184" t="s">
-        <v>75</v>
-      </c>
-      <c r="F184" t="s">
-        <v>157</v>
-      </c>
-      <c r="G184" t="s">
-        <v>158</v>
-      </c>
-      <c r="H184" t="s">
-        <v>15</v>
-      </c>
-      <c r="I184" t="s">
-        <v>140</v>
-      </c>
-      <c r="J184" t="s">
-        <v>36</v>
-      </c>
-      <c r="K184" t="s">
-        <v>142</v>
-      </c>
-      <c r="L184" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>4318.4780000000001</v>
+        <v>2668.9180000000001</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D185" t="s">
-        <v>44</v>
-      </c>
-      <c r="E185" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F185" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G185" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H185" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J185" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K185" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L185" t="s">
-        <v>140</v>
-      </c>
-      <c r="M185" t="s">
-        <v>141</v>
-      </c>
-      <c r="N185" t="s">
-        <v>142</v>
-      </c>
-      <c r="O185">
-        <v>10</v>
-      </c>
-      <c r="P185" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1230.954</v>
+        <v>4318.4780000000001</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="E186" t="s">
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G186" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H186" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I186" t="s">
+        <v>144</v>
+      </c>
+      <c r="J186" t="s">
+        <v>139</v>
+      </c>
+      <c r="K186" t="s">
+        <v>138</v>
+      </c>
+      <c r="L186" t="s">
         <v>140</v>
       </c>
-      <c r="J186" t="s">
-        <v>36</v>
-      </c>
-      <c r="K186" t="s">
+      <c r="M186" t="s">
+        <v>141</v>
+      </c>
+      <c r="N186" t="s">
         <v>142</v>
       </c>
-      <c r="L186" t="s">
-        <v>159</v>
+      <c r="O186">
+        <v>10</v>
+      </c>
+      <c r="P186" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3556.788</v>
+        <v>1230.954</v>
       </c>
       <c r="B187" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D187" t="s">
-        <v>44</v>
-      </c>
-      <c r="E187" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F187" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G187" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H187" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J187" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K187" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L187" t="s">
-        <v>140</v>
-      </c>
-      <c r="M187" t="s">
-        <v>141</v>
-      </c>
-      <c r="N187" t="s">
-        <v>142</v>
-      </c>
-      <c r="O187">
-        <v>10</v>
-      </c>
-      <c r="P187" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>688.75199999999995</v>
+        <v>3556.788</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="E188" t="s">
+        <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G188" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I188" t="s">
+        <v>146</v>
+      </c>
+      <c r="J188" t="s">
+        <v>139</v>
+      </c>
+      <c r="K188" t="s">
+        <v>138</v>
+      </c>
+      <c r="L188" t="s">
         <v>140</v>
       </c>
-      <c r="J188" t="s">
-        <v>36</v>
-      </c>
-      <c r="K188" t="s">
+      <c r="M188" t="s">
+        <v>141</v>
+      </c>
+      <c r="N188" t="s">
         <v>142</v>
       </c>
-      <c r="L188" t="s">
-        <v>159</v>
+      <c r="O188">
+        <v>10</v>
+      </c>
+      <c r="P188" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3018.817</v>
+        <v>688.75199999999995</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D189" t="s">
-        <v>44</v>
-      </c>
-      <c r="E189" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F189" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G189" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H189" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J189" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K189" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L189" t="s">
-        <v>140</v>
-      </c>
-      <c r="M189" t="s">
-        <v>141</v>
-      </c>
-      <c r="N189" t="s">
-        <v>142</v>
-      </c>
-      <c r="O189">
-        <v>10</v>
-      </c>
-      <c r="P189" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>257.06700000000001</v>
+        <v>3018.817</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C190" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="E190" t="s">
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G190" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I190" t="s">
+        <v>148</v>
+      </c>
+      <c r="J190" t="s">
+        <v>139</v>
+      </c>
+      <c r="K190" t="s">
+        <v>138</v>
+      </c>
+      <c r="L190" t="s">
         <v>140</v>
       </c>
-      <c r="J190" t="s">
-        <v>36</v>
-      </c>
-      <c r="K190" t="s">
+      <c r="M190" t="s">
+        <v>141</v>
+      </c>
+      <c r="N190" t="s">
         <v>142</v>
       </c>
-      <c r="L190" t="s">
-        <v>159</v>
+      <c r="O190">
+        <v>10</v>
+      </c>
+      <c r="P190" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>2755.232</v>
+        <v>257.06700000000001</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D191" t="s">
-        <v>44</v>
-      </c>
-      <c r="E191" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F191" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="G191" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H191" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J191" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="K191" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L191" t="s">
-        <v>140</v>
-      </c>
-      <c r="M191" t="s">
-        <v>141</v>
-      </c>
-      <c r="N191" t="s">
-        <v>142</v>
-      </c>
-      <c r="O191">
-        <v>10</v>
-      </c>
-      <c r="P191" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
+        <v>2755.232</v>
+      </c>
+      <c r="B192" t="s">
+        <v>138</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" t="s">
+        <v>71</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192" t="s">
+        <v>150</v>
+      </c>
+      <c r="J192" t="s">
+        <v>139</v>
+      </c>
+      <c r="K192" t="s">
+        <v>138</v>
+      </c>
+      <c r="L192" t="s">
+        <v>140</v>
+      </c>
+      <c r="M192" t="s">
+        <v>141</v>
+      </c>
+      <c r="N192" t="s">
+        <v>142</v>
+      </c>
+      <c r="O192">
+        <v>10</v>
+      </c>
+      <c r="P192" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>100.268</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>89</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>61</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>90</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F193" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>2935.75</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>138</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>16</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>44</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E194" t="s">
         <v>35</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
         <v>71</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G194" t="s">
         <v>72</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H194" t="s">
         <v>73</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I194" t="s">
         <v>151</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J194" t="s">
         <v>139</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K194" t="s">
         <v>138</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L194" t="s">
         <v>140</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M194" t="s">
         <v>141</v>
       </c>
-      <c r="N193" t="s">
+      <c r="N194" t="s">
         <v>142</v>
       </c>
-      <c r="O193">
+      <c r="O194">
         <v>10</v>
       </c>
-      <c r="P193" t="s">
+      <c r="P194" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>101.07</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>93</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>61</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>94</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F195" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>2549.6979999999999</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>138</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>16</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>44</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E196" t="s">
         <v>35</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>71</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G196" t="s">
         <v>72</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H196" t="s">
         <v>73</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I196" t="s">
         <v>152</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J196" t="s">
         <v>139</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K196" t="s">
         <v>138</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L196" t="s">
         <v>140</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M196" t="s">
         <v>141</v>
       </c>
-      <c r="N195" t="s">
+      <c r="N196" t="s">
         <v>142</v>
       </c>
-      <c r="O195">
+      <c r="O196">
         <v>10</v>
       </c>
-      <c r="P195" t="s">
+      <c r="P196" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>93.343000000000004</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>97</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>61</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>98</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F197" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>2510.5309999999999</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>138</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>16</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>44</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>35</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>71</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G198" t="s">
         <v>72</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H198" t="s">
         <v>73</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I198" t="s">
         <v>153</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J198" t="s">
         <v>139</v>
       </c>
-      <c r="K197" t="s">
+      <c r="K198" t="s">
         <v>138</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L198" t="s">
         <v>140</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M198" t="s">
         <v>141</v>
       </c>
-      <c r="N197" t="s">
+      <c r="N198" t="s">
         <v>142</v>
       </c>
-      <c r="O197">
+      <c r="O198">
         <v>10</v>
       </c>
-      <c r="P197" t="s">
+      <c r="P198" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>70.031999999999996</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>101</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>61</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>102</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F199" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>1733.5319999999999</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>138</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>16</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>44</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>35</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F200" t="s">
         <v>71</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G200" t="s">
         <v>72</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H200" t="s">
         <v>73</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I200" t="s">
         <v>154</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J200" t="s">
         <v>139</v>
       </c>
-      <c r="K199" t="s">
+      <c r="K200" t="s">
         <v>138</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L200" t="s">
         <v>140</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M200" t="s">
         <v>141</v>
       </c>
-      <c r="N199" t="s">
+      <c r="N200" t="s">
         <v>142</v>
       </c>
-      <c r="O199">
+      <c r="O200">
         <v>10</v>
       </c>
-      <c r="P199" t="s">
+      <c r="P200" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>0.38</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>105</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>61</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>106</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>156</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>72</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>73</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>156</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>139</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>138</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G203" t="s">
         <v>140</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H203" t="s">
         <v>141</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I203" t="s">
         <v>142</v>
       </c>
-      <c r="J202">
+      <c r="J203">
         <v>10</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K203" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="R203" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S203" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T203" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>3556.1930000000002</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>17</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>62</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D204" t="s">
         <v>66</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F204" t="s">
         <v>157</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G204" t="s">
         <v>158</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H204" t="s">
         <v>15</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I204" t="s">
         <v>140</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J204" t="s">
         <v>36</v>
       </c>
-      <c r="K203" t="s">
+      <c r="K204" t="s">
         <v>142</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L204" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>132</v>
-      </c>
-      <c r="B204" t="s">
-        <v>133</v>
-      </c>
-      <c r="C204" t="s">
-        <v>134</v>
-      </c>
-      <c r="D204" t="s">
-        <v>135</v>
-      </c>
-      <c r="E204" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204" s="6">
+        <v>3556.1930000000002</v>
+      </c>
+      <c r="R204" s="6">
+        <f>Q204</f>
+        <v>3556.1930000000002</v>
+      </c>
+      <c r="S204" s="6">
+        <f>Q205</f>
+        <v>6496.4229999999998</v>
+      </c>
+      <c r="T204" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6496.4229999999998</v>
       </c>
@@ -30376,8 +31056,22 @@
       <c r="P205" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205" s="6">
+        <v>6496.4229999999998</v>
+      </c>
+      <c r="R205" s="6">
+        <f>Q206</f>
+        <v>1875.5340000000001</v>
+      </c>
+      <c r="S205" s="6">
+        <f>Q207</f>
+        <v>4331.5749999999998</v>
+      </c>
+      <c r="T205" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1875.5340000000001</v>
       </c>
@@ -30411,8 +31105,22 @@
       <c r="L206" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206" s="6">
+        <v>1875.5340000000001</v>
+      </c>
+      <c r="R206" s="6">
+        <f>Q208</f>
+        <v>440.21800000000002</v>
+      </c>
+      <c r="S206" s="6">
+        <f>Q209</f>
+        <v>3752.8870000000002</v>
+      </c>
+      <c r="T206" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4331.5749999999998</v>
       </c>
@@ -30461,8 +31169,22 @@
       <c r="P207" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207" s="6">
+        <v>4331.5749999999998</v>
+      </c>
+      <c r="R207" s="6">
+        <f>Q210</f>
+        <v>278.49599999999998</v>
+      </c>
+      <c r="S207" s="6">
+        <f>Q211</f>
+        <v>3039.1439999999998</v>
+      </c>
+      <c r="T207" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>440.21800000000002</v>
       </c>
@@ -30496,8 +31218,22 @@
       <c r="L208" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208" s="6">
+        <v>440.21800000000002</v>
+      </c>
+      <c r="R208" s="6">
+        <f>Q212</f>
+        <v>145.29400000000001</v>
+      </c>
+      <c r="S208" s="6">
+        <f>Q213</f>
+        <v>2783.0990000000002</v>
+      </c>
+      <c r="T208" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3752.8870000000002</v>
       </c>
@@ -30546,8 +31282,22 @@
       <c r="P209" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209" s="6">
+        <v>3752.8870000000002</v>
+      </c>
+      <c r="R209" s="6">
+        <f>Q214</f>
+        <v>93.676000000000002</v>
+      </c>
+      <c r="S209" s="6">
+        <f>Q215</f>
+        <v>2729.5430000000001</v>
+      </c>
+      <c r="T209" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>278.49599999999998</v>
       </c>
@@ -30581,8 +31331,22 @@
       <c r="L210" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210" s="6">
+        <v>278.49599999999998</v>
+      </c>
+      <c r="R210" s="6">
+        <f>Q216</f>
+        <v>71.492000000000004</v>
+      </c>
+      <c r="S210" s="6">
+        <f>Q217</f>
+        <v>2653.3960000000002</v>
+      </c>
+      <c r="T210" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3039.1439999999998</v>
       </c>
@@ -30631,8 +31395,22 @@
       <c r="P211" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211" s="6">
+        <v>3039.1439999999998</v>
+      </c>
+      <c r="R211" s="6">
+        <f>Q218</f>
+        <v>66.063000000000002</v>
+      </c>
+      <c r="S211" s="6">
+        <f>Q219</f>
+        <v>2512.89</v>
+      </c>
+      <c r="T211" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>145.29400000000001</v>
       </c>
@@ -30666,8 +31444,22 @@
       <c r="L212" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212" s="6">
+        <v>145.29400000000001</v>
+      </c>
+      <c r="R212" s="6">
+        <f>Q220</f>
+        <v>60.204999999999998</v>
+      </c>
+      <c r="S212" s="6">
+        <f>Q221</f>
+        <v>1725.492</v>
+      </c>
+      <c r="T212" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2783.0990000000002</v>
       </c>
@@ -30716,8 +31508,11 @@
       <c r="P213" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213" s="6">
+        <v>2783.0990000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>93.676000000000002</v>
       </c>
@@ -30733,8 +31528,11 @@
       <c r="F214" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214" s="6">
+        <v>93.676000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2729.5430000000001</v>
       </c>
@@ -30783,8 +31581,11 @@
       <c r="P215" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215" s="6">
+        <v>2729.5430000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>71.492000000000004</v>
       </c>
@@ -30800,8 +31601,11 @@
       <c r="F216" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216" s="6">
+        <v>71.492000000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2653.3960000000002</v>
       </c>
@@ -30850,8 +31654,11 @@
       <c r="P217" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217" s="6">
+        <v>2653.3960000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>66.063000000000002</v>
       </c>
@@ -30867,8 +31674,11 @@
       <c r="F218" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218" s="6">
+        <v>66.063000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2512.89</v>
       </c>
@@ -30917,8 +31727,11 @@
       <c r="P219" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219" s="6">
+        <v>2512.89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>60.204999999999998</v>
       </c>
@@ -30934,8 +31747,11 @@
       <c r="F220" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220" s="6">
+        <v>60.204999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1725.492</v>
       </c>
@@ -30984,8 +31800,11 @@
       <c r="P221" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221" s="6">
+        <v>1725.492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0.376</v>
       </c>
@@ -31002,12 +31821,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>156</v>
       </c>
@@ -31052,10 +31871,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31565,8 +32384,8 @@
         <v>2617.654</v>
       </c>
       <c r="I10" s="4">
-        <f>G20</f>
-        <v>2813.431</v>
+        <f>G19</f>
+        <v>2559</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
@@ -31592,8 +32411,8 @@
         <v>2627.9140000000002</v>
       </c>
       <c r="T10" s="4">
-        <f>R20</f>
-        <v>2930.8339999999998</v>
+        <f>R19</f>
+        <v>2135.884</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="1"/>
@@ -31624,8 +32443,8 @@
         <v>2813.431</v>
       </c>
       <c r="I11" s="4">
-        <f>G20</f>
-        <v>2813.431</v>
+        <f>G21</f>
+        <v>2361.1329999999998</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
@@ -31654,8 +32473,8 @@
         <v>2930.8339999999998</v>
       </c>
       <c r="T11" s="4">
-        <f>R20</f>
-        <v>2930.8339999999998</v>
+        <f>R21</f>
+        <v>2389.8620000000001</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
@@ -32010,6 +32829,430 @@
       </c>
       <c r="R21" s="4">
         <v>2389.8620000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="J24" s="5">
+        <v>82.957999999999998</v>
+      </c>
+      <c r="K24" s="5">
+        <f>J24</f>
+        <v>82.957999999999998</v>
+      </c>
+      <c r="L24" s="5">
+        <f>J25</f>
+        <v>637.99599999999998</v>
+      </c>
+      <c r="M24" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <v>178.815</v>
+      </c>
+      <c r="F25" s="6">
+        <f>E25</f>
+        <v>178.815</v>
+      </c>
+      <c r="G25" s="6">
+        <f>E26</f>
+        <v>586.19200000000001</v>
+      </c>
+      <c r="H25" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="5">
+        <v>637.99599999999998</v>
+      </c>
+      <c r="K25" s="5">
+        <f>J26</f>
+        <v>117.947</v>
+      </c>
+      <c r="L25" s="5">
+        <f>J27</f>
+        <v>821.00599999999997</v>
+      </c>
+      <c r="M25" s="5">
+        <f>M24+100000</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E26" s="6">
+        <v>586.19200000000001</v>
+      </c>
+      <c r="F26" s="6">
+        <f>E27</f>
+        <v>321.572</v>
+      </c>
+      <c r="G26" s="6">
+        <f>E28</f>
+        <v>768.86900000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <f>H25+100000</f>
+        <v>200000</v>
+      </c>
+      <c r="J26" s="5">
+        <v>117.947</v>
+      </c>
+      <c r="K26" s="5">
+        <f>J28</f>
+        <v>149.93299999999999</v>
+      </c>
+      <c r="L26" s="5">
+        <f>J29</f>
+        <v>1132.0170000000001</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" ref="M26:M33" si="2">M25+100000</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <v>321.572</v>
+      </c>
+      <c r="F27" s="6">
+        <f>E29</f>
+        <v>543.86500000000001</v>
+      </c>
+      <c r="G27" s="6">
+        <f>E30</f>
+        <v>1173.712</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" ref="H27:H34" si="3">H26+100000</f>
+        <v>300000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>821.00599999999997</v>
+      </c>
+      <c r="K27" s="5">
+        <f>J30</f>
+        <v>212.58799999999999</v>
+      </c>
+      <c r="L27" s="5">
+        <f>J31</f>
+        <v>1347.963</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <v>768.86900000000003</v>
+      </c>
+      <c r="F28" s="6">
+        <f>E31</f>
+        <v>601.25199999999995</v>
+      </c>
+      <c r="G28" s="6">
+        <f>E32</f>
+        <v>1251.2760000000001</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="J28" s="5">
+        <v>149.93299999999999</v>
+      </c>
+      <c r="K28" s="5">
+        <f>J32</f>
+        <v>190.99100000000001</v>
+      </c>
+      <c r="L28" s="5">
+        <f>J33</f>
+        <v>1456.5039999999999</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <v>543.86500000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <f>E33</f>
+        <v>745.22799999999995</v>
+      </c>
+      <c r="G29" s="6">
+        <f>E34</f>
+        <v>1343.0070000000001</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1132.0170000000001</v>
+      </c>
+      <c r="K29" s="5">
+        <f>J34</f>
+        <v>216.048</v>
+      </c>
+      <c r="L29" s="5">
+        <f>J35</f>
+        <v>1592.835</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E30" s="6">
+        <v>1173.712</v>
+      </c>
+      <c r="F30" s="6">
+        <f>E35</f>
+        <v>906.69</v>
+      </c>
+      <c r="G30" s="6">
+        <f>E36</f>
+        <v>1554.35</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="3"/>
+        <v>600000</v>
+      </c>
+      <c r="J30" s="5">
+        <v>212.58799999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <f>J36</f>
+        <v>283.12299999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <f>J37</f>
+        <v>2086.549</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="2"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <v>601.25199999999995</v>
+      </c>
+      <c r="F31" s="6">
+        <f>E37</f>
+        <v>1051.6769999999999</v>
+      </c>
+      <c r="G31" s="6">
+        <f>E38</f>
+        <v>1748.866</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="3"/>
+        <v>700000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1347.963</v>
+      </c>
+      <c r="K31" s="5">
+        <f>J38</f>
+        <v>303.78699999999998</v>
+      </c>
+      <c r="L31" s="5">
+        <f>J39</f>
+        <v>2228.4319999999998</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <v>1251.2760000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <f>E39</f>
+        <v>1203.915</v>
+      </c>
+      <c r="G32" s="6">
+        <f>E40</f>
+        <v>1966.1790000000001</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="3"/>
+        <v>800000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>190.99100000000001</v>
+      </c>
+      <c r="K32" s="5">
+        <f>J40</f>
+        <v>335.42200000000003</v>
+      </c>
+      <c r="L32" s="5">
+        <f>J41</f>
+        <v>2205.2170000000001</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <v>745.22799999999995</v>
+      </c>
+      <c r="F33" s="6">
+        <f>E41</f>
+        <v>1459.4770000000001</v>
+      </c>
+      <c r="G33" s="6">
+        <f>E42</f>
+        <v>2215.3339999999998</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1456.5039999999999</v>
+      </c>
+      <c r="K33" s="5">
+        <f>J42</f>
+        <v>367.048</v>
+      </c>
+      <c r="L33" s="5">
+        <f>J43</f>
+        <v>2449.5010000000002</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="6">
+        <v>1343.0070000000001</v>
+      </c>
+      <c r="F34" s="6">
+        <f>E43</f>
+        <v>1623.3620000000001</v>
+      </c>
+      <c r="G34" s="6">
+        <f>E44</f>
+        <v>2357.4389999999999</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="J34" s="5">
+        <v>216.048</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <v>906.69</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1592.835</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="6">
+        <v>1554.35</v>
+      </c>
+      <c r="J36" s="5">
+        <v>283.12299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>1051.6769999999999</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2086.549</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="6">
+        <v>1748.866</v>
+      </c>
+      <c r="J38" s="5">
+        <v>303.78699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="6">
+        <v>1203.915</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2228.4319999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" s="6">
+        <v>1966.1790000000001</v>
+      </c>
+      <c r="J40" s="5">
+        <v>335.42200000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="6">
+        <v>1459.4770000000001</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2205.2170000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="6">
+        <v>2215.3339999999998</v>
+      </c>
+      <c r="J42" s="5">
+        <v>367.048</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="6">
+        <v>1623.3620000000001</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2449.5010000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E44" s="6">
+        <v>2357.4389999999999</v>
       </c>
     </row>
   </sheetData>
